--- a/biology/Botanique/Cafeteria/Cafeteria.xlsx
+++ b/biology/Botanique/Cafeteria/Cafeteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cafeteria est un genre de Chromistes  de l'embranchement des Bigyra, de la classe des Bikosea et de la famille de Cafeteriaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cafeteria sont des cellules incolores, nues, réniformes et légèrement aplaties, portant 2 flagelles inégaux, se fixant à un substrat par la pointe du flagelle lisse. Ce dernier est dirigé vers l'arrière et suit un sillon peu profond sur la surface ventrale des cellules, permettant la progression des cellules natatoires. Le flagelle poilu est dirigé vers l'avant, formant un arc chez les cellules sessiles. 
-La zone cytostomiale (orifice buccal) est située à côté des flagelles. Les cellules se nourrissent de bactéries en suspension. Leur reproduction est inconnue à ce jour (avril 2011)[2].
+La zone cytostomiale (orifice buccal) est située à côté des flagelles. Les cellules se nourrissent de bactéries en suspension. Leur reproduction est inconnue à ce jour (avril 2011).
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (9 sept. 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (9 sept. 2022) :
 Cafeteria marsupialis J.Larsen &amp; D.J.Patterson, 1990
 Holotype de Cafeteria roenbergensis Fenchel &amp; D.J.Patterson, 1988
 Cafeteria minuta (Ruinen) Larsen &amp; D.J.Patterson, 1990
 Cafeteria roenbergensis Fenchel &amp; D.J.Patterson, 1988 espèce type
-Selon World Register of Marine Species                               (9 sept. 2022)[3] :
+Selon World Register of Marine Species                               (9 sept. 2022) :
 Cafeteria marsupialis Larsen &amp; Patterson, 1990
 Cafeteria minuta (Ruinen) Larsen &amp; D.J.Patterson, 1990
 Cafeteria roenbergensis Fenchel &amp; D.J.Patterson, 1988</t>
